--- a/ISA proposals/Huawei/push_pop_encoding_results.xlsx
+++ b/ISA proposals/Huawei/push_pop_encoding_results.xlsx
@@ -5,16 +5,17 @@
   <workbookPr defaultThemeVersion="153222"/>
   <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
     <mc:Choice Requires="x15">
-      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="D:\Onebox\riscv\code size TG\"/>
+      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\t00346040\Downloads\"/>
     </mc:Choice>
   </mc:AlternateContent>
   <bookViews>
-    <workbookView xWindow="0" yWindow="0" windowWidth="23020" windowHeight="7450"/>
+    <workbookView xWindow="0" yWindow="0" windowWidth="23020" windowHeight="7450" activeTab="3"/>
   </bookViews>
   <sheets>
     <sheet name="c.push" sheetId="1" r:id="rId1"/>
     <sheet name="c.popret" sheetId="2" r:id="rId2"/>
     <sheet name="c.pop" sheetId="3" r:id="rId3"/>
+    <sheet name="FP" sheetId="4" r:id="rId4"/>
   </sheets>
   <calcPr calcId="152511"/>
   <extLst>
@@ -26,7 +27,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="57" uniqueCount="21">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="79" uniqueCount="42">
   <si>
     <t>spimm</t>
   </si>
@@ -89,6 +90,69 @@
   </si>
   <si>
     <t>boxes show where register lists are merged</t>
+  </si>
+  <si>
+    <t>PUSH.D/POP.D</t>
+  </si>
+  <si>
+    <t>OPUS</t>
+  </si>
+  <si>
+    <t>FPMARK</t>
+  </si>
+  <si>
+    <t>TOTAL</t>
+  </si>
+  <si>
+    <t>fs0</t>
+  </si>
+  <si>
+    <t>fs0-fs1</t>
+  </si>
+  <si>
+    <t>fs0-fs2</t>
+  </si>
+  <si>
+    <t>fs0-fs3</t>
+  </si>
+  <si>
+    <t>fs0-fs4</t>
+  </si>
+  <si>
+    <t>fs0-fs5</t>
+  </si>
+  <si>
+    <t>fs0-fs6</t>
+  </si>
+  <si>
+    <t>fs0-fs7</t>
+  </si>
+  <si>
+    <t>fs0-fs8</t>
+  </si>
+  <si>
+    <t>fs0-fs9</t>
+  </si>
+  <si>
+    <t>fs0-fs10</t>
+  </si>
+  <si>
+    <t>fs0-fs11</t>
+  </si>
+  <si>
+    <t>FP registers saved/restored in FP code, both benchmarks are double precision</t>
+  </si>
+  <si>
+    <t>gcc 8.3.0</t>
+  </si>
+  <si>
+    <t xml:space="preserve"> -march=rv64imafdc</t>
+  </si>
+  <si>
+    <t xml:space="preserve"> -mabi=lp64d</t>
+  </si>
+  <si>
+    <t>group together</t>
   </si>
 </sst>
 </file>
@@ -112,7 +176,7 @@
       <scheme val="minor"/>
     </font>
   </fonts>
-  <fills count="3">
+  <fills count="4">
     <fill>
       <patternFill patternType="none"/>
     </fill>
@@ -122,6 +186,12 @@
     <fill>
       <patternFill patternType="solid">
         <fgColor rgb="FFFFFF00"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="7" tint="0.39997558519241921"/>
         <bgColor indexed="64"/>
       </patternFill>
     </fill>
@@ -336,7 +406,7 @@
   <cellStyleXfs count="1">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0"/>
   </cellStyleXfs>
-  <cellXfs count="24">
+  <cellXfs count="33">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0"/>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="1" xfId="0" applyBorder="1" applyAlignment="1">
       <alignment wrapText="1"/>
@@ -349,15 +419,6 @@
     </xf>
     <xf numFmtId="0" fontId="1" fillId="0" borderId="1" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="right" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="2" xfId="0" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="3" xfId="0" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="4" xfId="0" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left" wrapText="1"/>
     </xf>
     <xf numFmtId="0" fontId="0" fillId="2" borderId="1" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="right" wrapText="1"/>
@@ -406,6 +467,42 @@
     </xf>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="4" xfId="0" applyBorder="1" applyAlignment="1">
       <alignment wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="2" xfId="0" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="3" xfId="0" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="4" xfId="0" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" wrapText="1"/>
+    </xf>
+    <xf numFmtId="10" fontId="0" fillId="0" borderId="1" xfId="0" applyNumberFormat="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="right" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="2" xfId="0" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="3" xfId="0" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="4" xfId="0" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="2" borderId="1" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment wrapText="1"/>
+    </xf>
+    <xf numFmtId="10" fontId="0" fillId="2" borderId="1" xfId="0" applyNumberFormat="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="right" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="3" borderId="1" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="3" borderId="1" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="right" wrapText="1"/>
+    </xf>
+    <xf numFmtId="10" fontId="0" fillId="3" borderId="1" xfId="0" applyNumberFormat="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="right" wrapText="1"/>
     </xf>
   </cellXfs>
   <cellStyles count="1">
@@ -689,7 +786,7 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
   <dimension ref="A1:O23"/>
   <sheetViews>
-    <sheetView tabSelected="1" workbookViewId="0">
+    <sheetView workbookViewId="0">
       <selection activeCell="D34" sqref="D34"/>
     </sheetView>
   </sheetViews>
@@ -699,22 +796,22 @@
       <c r="A1" s="2" t="s">
         <v>15</v>
       </c>
-      <c r="B1" s="5" t="s">
+      <c r="B1" s="21" t="s">
         <v>16</v>
       </c>
-      <c r="C1" s="6"/>
-      <c r="D1" s="6"/>
-      <c r="E1" s="6"/>
-      <c r="F1" s="6"/>
-      <c r="G1" s="6"/>
-      <c r="H1" s="6"/>
-      <c r="I1" s="6"/>
-      <c r="J1" s="6"/>
-      <c r="K1" s="6"/>
-      <c r="L1" s="6"/>
-      <c r="M1" s="6"/>
-      <c r="N1" s="6"/>
-      <c r="O1" s="7"/>
+      <c r="C1" s="22"/>
+      <c r="D1" s="22"/>
+      <c r="E1" s="22"/>
+      <c r="F1" s="22"/>
+      <c r="G1" s="22"/>
+      <c r="H1" s="22"/>
+      <c r="I1" s="22"/>
+      <c r="J1" s="22"/>
+      <c r="K1" s="22"/>
+      <c r="L1" s="22"/>
+      <c r="M1" s="22"/>
+      <c r="N1" s="22"/>
+      <c r="O1" s="23"/>
     </row>
     <row r="2" spans="1:15" ht="29.5" thickBot="1" x14ac:dyDescent="0.4">
       <c r="A2" s="1" t="s">
@@ -735,28 +832,28 @@
       <c r="F2" s="1" t="s">
         <v>5</v>
       </c>
-      <c r="G2" s="11" t="s">
+      <c r="G2" s="8" t="s">
         <v>6</v>
       </c>
-      <c r="H2" s="11" t="s">
+      <c r="H2" s="8" t="s">
         <v>7</v>
       </c>
-      <c r="I2" s="11" t="s">
+      <c r="I2" s="8" t="s">
         <v>8</v>
       </c>
-      <c r="J2" s="11" t="s">
+      <c r="J2" s="8" t="s">
         <v>9</v>
       </c>
-      <c r="K2" s="11" t="s">
+      <c r="K2" s="8" t="s">
         <v>10</v>
       </c>
-      <c r="L2" s="11" t="s">
+      <c r="L2" s="8" t="s">
         <v>11</v>
       </c>
-      <c r="M2" s="11" t="s">
+      <c r="M2" s="8" t="s">
         <v>12</v>
       </c>
-      <c r="N2" s="11" t="s">
+      <c r="N2" s="8" t="s">
         <v>13</v>
       </c>
       <c r="O2" s="1"/>
@@ -765,181 +862,181 @@
       <c r="A3" s="3">
         <v>0</v>
       </c>
-      <c r="B3" s="8">
+      <c r="B3" s="5">
         <v>1282</v>
       </c>
-      <c r="C3" s="8">
+      <c r="C3" s="5">
         <v>1556</v>
       </c>
-      <c r="D3" s="8">
+      <c r="D3" s="5">
         <v>1017</v>
       </c>
-      <c r="E3" s="8">
+      <c r="E3" s="5">
         <v>705</v>
       </c>
-      <c r="F3" s="9">
+      <c r="F3" s="6">
         <v>512</v>
       </c>
-      <c r="G3" s="13">
+      <c r="G3" s="10">
         <v>310</v>
       </c>
-      <c r="H3" s="14">
+      <c r="H3" s="11">
         <v>229</v>
       </c>
-      <c r="I3" s="13">
+      <c r="I3" s="10">
         <v>133</v>
       </c>
-      <c r="J3" s="21">
+      <c r="J3" s="18">
         <v>80</v>
       </c>
-      <c r="K3" s="14">
+      <c r="K3" s="11">
         <v>51</v>
       </c>
-      <c r="L3" s="13">
+      <c r="L3" s="10">
         <v>25</v>
       </c>
-      <c r="M3" s="21">
+      <c r="M3" s="18">
         <v>36</v>
       </c>
-      <c r="N3" s="14">
+      <c r="N3" s="11">
         <v>28</v>
       </c>
-      <c r="O3" s="23"/>
+      <c r="O3" s="20"/>
     </row>
     <row r="4" spans="1:15" ht="15" thickBot="1" x14ac:dyDescent="0.4">
       <c r="A4" s="3">
         <v>1</v>
       </c>
-      <c r="B4" s="8">
+      <c r="B4" s="5">
         <v>262</v>
       </c>
-      <c r="C4" s="8">
+      <c r="C4" s="5">
         <v>589</v>
       </c>
-      <c r="D4" s="8">
+      <c r="D4" s="5">
         <v>367</v>
       </c>
-      <c r="E4" s="8">
+      <c r="E4" s="5">
         <v>359</v>
       </c>
-      <c r="F4" s="9">
+      <c r="F4" s="6">
         <v>243</v>
       </c>
-      <c r="G4" s="15">
+      <c r="G4" s="12">
         <v>184</v>
       </c>
-      <c r="H4" s="16">
+      <c r="H4" s="13">
         <v>1458</v>
       </c>
-      <c r="I4" s="15">
+      <c r="I4" s="12">
         <v>92</v>
       </c>
-      <c r="J4" s="8">
+      <c r="J4" s="5">
         <v>48</v>
       </c>
-      <c r="K4" s="16">
+      <c r="K4" s="13">
         <v>47</v>
       </c>
-      <c r="L4" s="15">
+      <c r="L4" s="12">
         <v>32</v>
       </c>
-      <c r="M4" s="8">
+      <c r="M4" s="5">
         <v>13</v>
       </c>
-      <c r="N4" s="16">
+      <c r="N4" s="13">
         <v>134</v>
       </c>
-      <c r="O4" s="23"/>
+      <c r="O4" s="20"/>
     </row>
     <row r="5" spans="1:15" ht="15" thickBot="1" x14ac:dyDescent="0.4">
       <c r="A5" s="3">
         <v>2</v>
       </c>
-      <c r="B5" s="8">
+      <c r="B5" s="5">
         <v>65</v>
       </c>
-      <c r="C5" s="8">
+      <c r="C5" s="5">
         <v>144</v>
       </c>
-      <c r="D5" s="8">
+      <c r="D5" s="5">
         <v>106</v>
       </c>
-      <c r="E5" s="8">
+      <c r="E5" s="5">
         <v>63</v>
       </c>
-      <c r="F5" s="9">
+      <c r="F5" s="6">
         <v>103</v>
       </c>
-      <c r="G5" s="15">
+      <c r="G5" s="12">
         <v>79</v>
       </c>
-      <c r="H5" s="16">
+      <c r="H5" s="13">
         <v>52</v>
       </c>
-      <c r="I5" s="15">
+      <c r="I5" s="12">
         <v>47</v>
       </c>
-      <c r="J5" s="8">
+      <c r="J5" s="5">
         <v>36</v>
       </c>
-      <c r="K5" s="16">
+      <c r="K5" s="13">
         <v>13</v>
       </c>
-      <c r="L5" s="15">
+      <c r="L5" s="12">
         <v>20</v>
       </c>
-      <c r="M5" s="8">
+      <c r="M5" s="5">
         <v>13</v>
       </c>
-      <c r="N5" s="16">
+      <c r="N5" s="13">
         <v>79</v>
       </c>
-      <c r="O5" s="23"/>
+      <c r="O5" s="20"/>
     </row>
     <row r="6" spans="1:15" ht="15" thickBot="1" x14ac:dyDescent="0.4">
       <c r="A6" s="3">
         <v>3</v>
       </c>
-      <c r="B6" s="8">
+      <c r="B6" s="5">
         <v>30</v>
       </c>
-      <c r="C6" s="8">
+      <c r="C6" s="5">
         <v>106</v>
       </c>
-      <c r="D6" s="8">
+      <c r="D6" s="5">
         <v>64</v>
       </c>
-      <c r="E6" s="8">
+      <c r="E6" s="5">
         <v>32</v>
       </c>
-      <c r="F6" s="9">
+      <c r="F6" s="6">
         <v>51</v>
       </c>
-      <c r="G6" s="15">
+      <c r="G6" s="12">
         <v>32</v>
       </c>
-      <c r="H6" s="16">
+      <c r="H6" s="13">
         <v>27</v>
       </c>
-      <c r="I6" s="15">
+      <c r="I6" s="12">
         <v>21</v>
       </c>
-      <c r="J6" s="8">
+      <c r="J6" s="5">
         <v>16</v>
       </c>
-      <c r="K6" s="16">
+      <c r="K6" s="13">
         <v>8</v>
       </c>
-      <c r="L6" s="15">
+      <c r="L6" s="12">
         <v>7</v>
       </c>
-      <c r="M6" s="8">
+      <c r="M6" s="5">
         <v>6</v>
       </c>
-      <c r="N6" s="16">
+      <c r="N6" s="13">
         <v>67</v>
       </c>
-      <c r="O6" s="23"/>
+      <c r="O6" s="20"/>
     </row>
     <row r="7" spans="1:15" ht="15" thickBot="1" x14ac:dyDescent="0.4">
       <c r="A7" s="3">
@@ -957,34 +1054,34 @@
       <c r="E7" s="3">
         <v>12</v>
       </c>
-      <c r="F7" s="9">
+      <c r="F7" s="6">
         <v>13</v>
       </c>
-      <c r="G7" s="15">
+      <c r="G7" s="12">
         <v>21</v>
       </c>
-      <c r="H7" s="16">
+      <c r="H7" s="13">
         <v>18</v>
       </c>
-      <c r="I7" s="15">
+      <c r="I7" s="12">
         <v>8</v>
       </c>
-      <c r="J7" s="8">
+      <c r="J7" s="5">
         <v>7</v>
       </c>
-      <c r="K7" s="16">
+      <c r="K7" s="13">
         <v>6</v>
       </c>
-      <c r="L7" s="15">
+      <c r="L7" s="12">
         <v>5</v>
       </c>
-      <c r="M7" s="8">
+      <c r="M7" s="5">
         <v>5</v>
       </c>
-      <c r="N7" s="16">
+      <c r="N7" s="13">
         <v>21</v>
       </c>
-      <c r="O7" s="23"/>
+      <c r="O7" s="20"/>
     </row>
     <row r="8" spans="1:15" ht="15" thickBot="1" x14ac:dyDescent="0.4">
       <c r="A8" s="3">
@@ -1002,34 +1099,34 @@
       <c r="E8" s="3">
         <v>20</v>
       </c>
-      <c r="F8" s="9">
+      <c r="F8" s="6">
         <v>10</v>
       </c>
-      <c r="G8" s="15">
+      <c r="G8" s="12">
         <v>22</v>
       </c>
-      <c r="H8" s="16">
+      <c r="H8" s="13">
         <v>15</v>
       </c>
-      <c r="I8" s="15">
+      <c r="I8" s="12">
         <v>16</v>
       </c>
-      <c r="J8" s="8">
+      <c r="J8" s="5">
         <v>15</v>
       </c>
-      <c r="K8" s="16">
+      <c r="K8" s="13">
         <v>6</v>
       </c>
-      <c r="L8" s="15">
+      <c r="L8" s="12">
         <v>3</v>
       </c>
-      <c r="M8" s="8">
-        <v>1</v>
-      </c>
-      <c r="N8" s="16">
+      <c r="M8" s="5">
+        <v>1</v>
+      </c>
+      <c r="N8" s="13">
         <v>15</v>
       </c>
-      <c r="O8" s="23"/>
+      <c r="O8" s="20"/>
     </row>
     <row r="9" spans="1:15" ht="15" thickBot="1" x14ac:dyDescent="0.4">
       <c r="A9" s="3">
@@ -1047,34 +1144,34 @@
       <c r="E9" s="3">
         <v>6</v>
       </c>
-      <c r="F9" s="9">
+      <c r="F9" s="6">
         <v>7</v>
       </c>
-      <c r="G9" s="15">
+      <c r="G9" s="12">
         <v>3</v>
       </c>
-      <c r="H9" s="16">
+      <c r="H9" s="13">
         <v>4</v>
       </c>
-      <c r="I9" s="15">
+      <c r="I9" s="12">
         <v>10</v>
       </c>
-      <c r="J9" s="8">
+      <c r="J9" s="5">
         <v>4</v>
       </c>
-      <c r="K9" s="16">
-        <v>0</v>
-      </c>
-      <c r="L9" s="15">
+      <c r="K9" s="13">
+        <v>0</v>
+      </c>
+      <c r="L9" s="12">
         <v>3</v>
       </c>
-      <c r="M9" s="8">
+      <c r="M9" s="5">
         <v>2</v>
       </c>
-      <c r="N9" s="16">
+      <c r="N9" s="13">
         <v>9</v>
       </c>
-      <c r="O9" s="23"/>
+      <c r="O9" s="20"/>
     </row>
     <row r="10" spans="1:15" ht="15" thickBot="1" x14ac:dyDescent="0.4">
       <c r="A10" s="3">
@@ -1092,34 +1189,34 @@
       <c r="E10" s="3">
         <v>9</v>
       </c>
-      <c r="F10" s="9">
+      <c r="F10" s="6">
         <v>7</v>
       </c>
-      <c r="G10" s="15">
+      <c r="G10" s="12">
         <v>4</v>
       </c>
-      <c r="H10" s="16">
+      <c r="H10" s="13">
         <v>4</v>
       </c>
-      <c r="I10" s="15">
-        <v>0</v>
-      </c>
-      <c r="J10" s="8">
-        <v>0</v>
-      </c>
-      <c r="K10" s="16">
-        <v>0</v>
-      </c>
-      <c r="L10" s="15">
-        <v>1</v>
-      </c>
-      <c r="M10" s="8">
-        <v>0</v>
-      </c>
-      <c r="N10" s="16">
+      <c r="I10" s="12">
+        <v>0</v>
+      </c>
+      <c r="J10" s="5">
+        <v>0</v>
+      </c>
+      <c r="K10" s="13">
+        <v>0</v>
+      </c>
+      <c r="L10" s="12">
+        <v>1</v>
+      </c>
+      <c r="M10" s="5">
+        <v>0</v>
+      </c>
+      <c r="N10" s="13">
         <v>9</v>
       </c>
-      <c r="O10" s="23"/>
+      <c r="O10" s="20"/>
     </row>
     <row r="11" spans="1:15" ht="15" thickBot="1" x14ac:dyDescent="0.4">
       <c r="A11" s="3">
@@ -1137,34 +1234,34 @@
       <c r="E11" s="3">
         <v>0</v>
       </c>
-      <c r="F11" s="10">
+      <c r="F11" s="7">
         <v>2</v>
       </c>
-      <c r="G11" s="17">
+      <c r="G11" s="14">
         <v>5</v>
       </c>
-      <c r="H11" s="18">
+      <c r="H11" s="15">
         <v>3</v>
       </c>
-      <c r="I11" s="17">
+      <c r="I11" s="14">
         <v>3</v>
       </c>
       <c r="J11" s="3">
         <v>1</v>
       </c>
-      <c r="K11" s="18">
-        <v>1</v>
-      </c>
-      <c r="L11" s="17">
+      <c r="K11" s="15">
+        <v>1</v>
+      </c>
+      <c r="L11" s="14">
         <v>2</v>
       </c>
       <c r="M11" s="3">
         <v>1</v>
       </c>
-      <c r="N11" s="18">
+      <c r="N11" s="15">
         <v>10</v>
       </c>
-      <c r="O11" s="23"/>
+      <c r="O11" s="20"/>
     </row>
     <row r="12" spans="1:15" ht="15" thickBot="1" x14ac:dyDescent="0.4">
       <c r="A12" s="3">
@@ -1182,34 +1279,34 @@
       <c r="E12" s="3">
         <v>1</v>
       </c>
-      <c r="F12" s="10">
+      <c r="F12" s="7">
         <v>4</v>
       </c>
-      <c r="G12" s="17">
+      <c r="G12" s="14">
         <v>2</v>
       </c>
-      <c r="H12" s="18">
+      <c r="H12" s="15">
         <v>3</v>
       </c>
-      <c r="I12" s="17">
+      <c r="I12" s="14">
         <v>0</v>
       </c>
       <c r="J12" s="3">
         <v>0</v>
       </c>
-      <c r="K12" s="18">
+      <c r="K12" s="15">
         <v>2</v>
       </c>
-      <c r="L12" s="17">
+      <c r="L12" s="14">
         <v>0</v>
       </c>
       <c r="M12" s="3">
         <v>1</v>
       </c>
-      <c r="N12" s="18">
+      <c r="N12" s="15">
         <v>5</v>
       </c>
-      <c r="O12" s="23"/>
+      <c r="O12" s="20"/>
     </row>
     <row r="13" spans="1:15" ht="15" thickBot="1" x14ac:dyDescent="0.4">
       <c r="A13" s="3">
@@ -1227,34 +1324,34 @@
       <c r="E13" s="3">
         <v>2</v>
       </c>
-      <c r="F13" s="10">
+      <c r="F13" s="7">
         <v>2</v>
       </c>
-      <c r="G13" s="17">
-        <v>0</v>
-      </c>
-      <c r="H13" s="18">
-        <v>1</v>
-      </c>
-      <c r="I13" s="17">
+      <c r="G13" s="14">
+        <v>0</v>
+      </c>
+      <c r="H13" s="15">
+        <v>1</v>
+      </c>
+      <c r="I13" s="14">
         <v>1</v>
       </c>
       <c r="J13" s="3">
         <v>1</v>
       </c>
-      <c r="K13" s="18">
-        <v>0</v>
-      </c>
-      <c r="L13" s="17">
+      <c r="K13" s="15">
+        <v>0</v>
+      </c>
+      <c r="L13" s="14">
         <v>0</v>
       </c>
       <c r="M13" s="3">
         <v>0</v>
       </c>
-      <c r="N13" s="18">
+      <c r="N13" s="15">
         <v>6</v>
       </c>
-      <c r="O13" s="23"/>
+      <c r="O13" s="20"/>
     </row>
     <row r="14" spans="1:15" ht="15" thickBot="1" x14ac:dyDescent="0.4">
       <c r="A14" s="3">
@@ -1272,34 +1369,34 @@
       <c r="E14" s="3">
         <v>1</v>
       </c>
-      <c r="F14" s="10">
-        <v>0</v>
-      </c>
-      <c r="G14" s="17">
-        <v>1</v>
-      </c>
-      <c r="H14" s="18">
+      <c r="F14" s="7">
+        <v>0</v>
+      </c>
+      <c r="G14" s="14">
+        <v>1</v>
+      </c>
+      <c r="H14" s="15">
         <v>3</v>
       </c>
-      <c r="I14" s="17">
+      <c r="I14" s="14">
         <v>1</v>
       </c>
       <c r="J14" s="3">
         <v>1</v>
       </c>
-      <c r="K14" s="18">
-        <v>0</v>
-      </c>
-      <c r="L14" s="17">
+      <c r="K14" s="15">
+        <v>0</v>
+      </c>
+      <c r="L14" s="14">
         <v>0</v>
       </c>
       <c r="M14" s="3">
         <v>0</v>
       </c>
-      <c r="N14" s="18">
+      <c r="N14" s="15">
         <v>3</v>
       </c>
-      <c r="O14" s="23"/>
+      <c r="O14" s="20"/>
     </row>
     <row r="15" spans="1:15" ht="15" thickBot="1" x14ac:dyDescent="0.4">
       <c r="A15" s="3">
@@ -1317,34 +1414,34 @@
       <c r="E15" s="3">
         <v>3</v>
       </c>
-      <c r="F15" s="10">
-        <v>0</v>
-      </c>
-      <c r="G15" s="17">
-        <v>1</v>
-      </c>
-      <c r="H15" s="18">
-        <v>0</v>
-      </c>
-      <c r="I15" s="17">
+      <c r="F15" s="7">
+        <v>0</v>
+      </c>
+      <c r="G15" s="14">
+        <v>1</v>
+      </c>
+      <c r="H15" s="15">
+        <v>0</v>
+      </c>
+      <c r="I15" s="14">
         <v>1</v>
       </c>
       <c r="J15" s="3">
         <v>1</v>
       </c>
-      <c r="K15" s="18">
-        <v>0</v>
-      </c>
-      <c r="L15" s="17">
+      <c r="K15" s="15">
+        <v>0</v>
+      </c>
+      <c r="L15" s="14">
         <v>0</v>
       </c>
       <c r="M15" s="3">
         <v>0</v>
       </c>
-      <c r="N15" s="18">
+      <c r="N15" s="15">
         <v>3</v>
       </c>
-      <c r="O15" s="23"/>
+      <c r="O15" s="20"/>
     </row>
     <row r="16" spans="1:15" ht="15" thickBot="1" x14ac:dyDescent="0.4">
       <c r="A16" s="3">
@@ -1362,34 +1459,34 @@
       <c r="E16" s="3">
         <v>0</v>
       </c>
-      <c r="F16" s="10">
-        <v>1</v>
-      </c>
-      <c r="G16" s="17">
-        <v>1</v>
-      </c>
-      <c r="H16" s="18">
-        <v>1</v>
-      </c>
-      <c r="I16" s="17">
+      <c r="F16" s="7">
+        <v>1</v>
+      </c>
+      <c r="G16" s="14">
+        <v>1</v>
+      </c>
+      <c r="H16" s="15">
+        <v>1</v>
+      </c>
+      <c r="I16" s="14">
         <v>1</v>
       </c>
       <c r="J16" s="3">
         <v>0</v>
       </c>
-      <c r="K16" s="18">
-        <v>0</v>
-      </c>
-      <c r="L16" s="17">
+      <c r="K16" s="15">
+        <v>0</v>
+      </c>
+      <c r="L16" s="14">
         <v>0</v>
       </c>
       <c r="M16" s="3">
         <v>0</v>
       </c>
-      <c r="N16" s="18">
+      <c r="N16" s="15">
         <v>5</v>
       </c>
-      <c r="O16" s="23"/>
+      <c r="O16" s="20"/>
     </row>
     <row r="17" spans="1:15" ht="15" thickBot="1" x14ac:dyDescent="0.4">
       <c r="A17" s="3">
@@ -1407,34 +1504,34 @@
       <c r="E17" s="3">
         <v>1</v>
       </c>
-      <c r="F17" s="10">
-        <v>1</v>
-      </c>
-      <c r="G17" s="17">
-        <v>1</v>
-      </c>
-      <c r="H17" s="18">
+      <c r="F17" s="7">
+        <v>1</v>
+      </c>
+      <c r="G17" s="14">
+        <v>1</v>
+      </c>
+      <c r="H17" s="15">
         <v>4</v>
       </c>
-      <c r="I17" s="17">
+      <c r="I17" s="14">
         <v>1</v>
       </c>
       <c r="J17" s="3">
         <v>0</v>
       </c>
-      <c r="K17" s="18">
-        <v>1</v>
-      </c>
-      <c r="L17" s="17">
+      <c r="K17" s="15">
+        <v>1</v>
+      </c>
+      <c r="L17" s="14">
         <v>0</v>
       </c>
       <c r="M17" s="3">
         <v>0</v>
       </c>
-      <c r="N17" s="18">
+      <c r="N17" s="15">
         <v>2</v>
       </c>
-      <c r="O17" s="23"/>
+      <c r="O17" s="20"/>
     </row>
     <row r="18" spans="1:15" ht="15" thickBot="1" x14ac:dyDescent="0.4">
       <c r="A18" s="3">
@@ -1452,34 +1549,34 @@
       <c r="E18" s="3">
         <v>4</v>
       </c>
-      <c r="F18" s="10">
-        <v>0</v>
-      </c>
-      <c r="G18" s="19">
-        <v>1</v>
-      </c>
-      <c r="H18" s="20">
-        <v>0</v>
-      </c>
-      <c r="I18" s="19">
-        <v>1</v>
-      </c>
-      <c r="J18" s="22">
-        <v>0</v>
-      </c>
-      <c r="K18" s="20">
-        <v>1</v>
-      </c>
-      <c r="L18" s="19">
+      <c r="F18" s="7">
+        <v>0</v>
+      </c>
+      <c r="G18" s="16">
+        <v>1</v>
+      </c>
+      <c r="H18" s="17">
+        <v>0</v>
+      </c>
+      <c r="I18" s="16">
+        <v>1</v>
+      </c>
+      <c r="J18" s="19">
+        <v>0</v>
+      </c>
+      <c r="K18" s="17">
+        <v>1</v>
+      </c>
+      <c r="L18" s="16">
         <v>2</v>
       </c>
-      <c r="M18" s="22">
-        <v>0</v>
-      </c>
-      <c r="N18" s="20">
+      <c r="M18" s="19">
+        <v>0</v>
+      </c>
+      <c r="N18" s="17">
         <v>3</v>
       </c>
-      <c r="O18" s="23"/>
+      <c r="O18" s="20"/>
     </row>
     <row r="19" spans="1:15" ht="15" thickBot="1" x14ac:dyDescent="0.4">
       <c r="A19" s="2" t="s">
@@ -1500,28 +1597,28 @@
       <c r="F19" s="4">
         <v>956</v>
       </c>
-      <c r="G19" s="12">
+      <c r="G19" s="9">
         <v>667</v>
       </c>
-      <c r="H19" s="12">
+      <c r="H19" s="9">
         <v>1822</v>
       </c>
-      <c r="I19" s="12">
+      <c r="I19" s="9">
         <v>336</v>
       </c>
-      <c r="J19" s="12">
+      <c r="J19" s="9">
         <v>210</v>
       </c>
-      <c r="K19" s="12">
+      <c r="K19" s="9">
         <v>136</v>
       </c>
-      <c r="L19" s="12">
+      <c r="L19" s="9">
         <v>100</v>
       </c>
-      <c r="M19" s="12">
+      <c r="M19" s="9">
         <v>78</v>
       </c>
-      <c r="N19" s="12">
+      <c r="N19" s="9">
         <v>399</v>
       </c>
       <c r="O19" s="4">
@@ -1561,22 +1658,22 @@
       <c r="A1" s="2" t="s">
         <v>17</v>
       </c>
-      <c r="B1" s="5" t="s">
+      <c r="B1" s="21" t="s">
         <v>16</v>
       </c>
-      <c r="C1" s="6"/>
-      <c r="D1" s="6"/>
-      <c r="E1" s="6"/>
-      <c r="F1" s="6"/>
-      <c r="G1" s="6"/>
-      <c r="H1" s="6"/>
-      <c r="I1" s="6"/>
-      <c r="J1" s="6"/>
-      <c r="K1" s="6"/>
-      <c r="L1" s="6"/>
-      <c r="M1" s="6"/>
-      <c r="N1" s="6"/>
-      <c r="O1" s="7"/>
+      <c r="C1" s="22"/>
+      <c r="D1" s="22"/>
+      <c r="E1" s="22"/>
+      <c r="F1" s="22"/>
+      <c r="G1" s="22"/>
+      <c r="H1" s="22"/>
+      <c r="I1" s="22"/>
+      <c r="J1" s="22"/>
+      <c r="K1" s="22"/>
+      <c r="L1" s="22"/>
+      <c r="M1" s="22"/>
+      <c r="N1" s="22"/>
+      <c r="O1" s="23"/>
     </row>
     <row r="2" spans="1:15" ht="29.5" thickBot="1" x14ac:dyDescent="0.4">
       <c r="A2" s="1" t="s">
@@ -1597,28 +1694,28 @@
       <c r="F2" s="1" t="s">
         <v>5</v>
       </c>
-      <c r="G2" s="11" t="s">
+      <c r="G2" s="8" t="s">
         <v>6</v>
       </c>
-      <c r="H2" s="11" t="s">
+      <c r="H2" s="8" t="s">
         <v>7</v>
       </c>
-      <c r="I2" s="11" t="s">
+      <c r="I2" s="8" t="s">
         <v>8</v>
       </c>
-      <c r="J2" s="11" t="s">
+      <c r="J2" s="8" t="s">
         <v>9</v>
       </c>
-      <c r="K2" s="11" t="s">
+      <c r="K2" s="8" t="s">
         <v>10</v>
       </c>
-      <c r="L2" s="11" t="s">
+      <c r="L2" s="8" t="s">
         <v>11</v>
       </c>
-      <c r="M2" s="11" t="s">
+      <c r="M2" s="8" t="s">
         <v>12</v>
       </c>
-      <c r="N2" s="11" t="s">
+      <c r="N2" s="8" t="s">
         <v>13</v>
       </c>
       <c r="O2" s="1"/>
@@ -1627,226 +1724,226 @@
       <c r="A3" s="3">
         <v>0</v>
       </c>
-      <c r="B3" s="8">
+      <c r="B3" s="5">
         <v>971</v>
       </c>
-      <c r="C3" s="8">
+      <c r="C3" s="5">
         <v>1228</v>
       </c>
-      <c r="D3" s="8">
+      <c r="D3" s="5">
         <v>859</v>
       </c>
-      <c r="E3" s="8">
+      <c r="E3" s="5">
         <v>600</v>
       </c>
-      <c r="F3" s="9">
+      <c r="F3" s="6">
         <v>457</v>
       </c>
-      <c r="G3" s="13">
+      <c r="G3" s="10">
         <v>287</v>
       </c>
-      <c r="H3" s="14">
+      <c r="H3" s="11">
         <v>208</v>
       </c>
-      <c r="I3" s="13">
+      <c r="I3" s="10">
         <v>126</v>
       </c>
-      <c r="J3" s="21">
+      <c r="J3" s="18">
         <v>77</v>
       </c>
-      <c r="K3" s="14">
+      <c r="K3" s="11">
         <v>48</v>
       </c>
-      <c r="L3" s="13">
+      <c r="L3" s="10">
         <v>26</v>
       </c>
-      <c r="M3" s="21">
+      <c r="M3" s="18">
         <v>35</v>
       </c>
-      <c r="N3" s="14">
+      <c r="N3" s="11">
         <v>42</v>
       </c>
-      <c r="O3" s="23"/>
+      <c r="O3" s="20"/>
     </row>
     <row r="4" spans="1:15" ht="15" thickBot="1" x14ac:dyDescent="0.4">
       <c r="A4" s="3">
         <v>1</v>
       </c>
-      <c r="B4" s="8">
+      <c r="B4" s="5">
         <v>225</v>
       </c>
-      <c r="C4" s="8">
+      <c r="C4" s="5">
         <v>520</v>
       </c>
-      <c r="D4" s="8">
+      <c r="D4" s="5">
         <v>341</v>
       </c>
-      <c r="E4" s="8">
+      <c r="E4" s="5">
         <v>353</v>
       </c>
-      <c r="F4" s="9">
+      <c r="F4" s="6">
         <v>234</v>
       </c>
-      <c r="G4" s="15">
+      <c r="G4" s="12">
         <v>188</v>
       </c>
-      <c r="H4" s="16">
+      <c r="H4" s="13">
         <v>149</v>
       </c>
-      <c r="I4" s="15">
+      <c r="I4" s="12">
         <v>93</v>
       </c>
-      <c r="J4" s="8">
+      <c r="J4" s="5">
         <v>51</v>
       </c>
-      <c r="K4" s="16">
+      <c r="K4" s="13">
         <v>45</v>
       </c>
-      <c r="L4" s="15">
+      <c r="L4" s="12">
         <v>30</v>
       </c>
-      <c r="M4" s="8">
+      <c r="M4" s="5">
         <v>13</v>
       </c>
-      <c r="N4" s="16">
+      <c r="N4" s="13">
         <v>78</v>
       </c>
-      <c r="O4" s="23"/>
+      <c r="O4" s="20"/>
     </row>
     <row r="5" spans="1:15" ht="15" thickBot="1" x14ac:dyDescent="0.4">
       <c r="A5" s="3">
         <v>2</v>
       </c>
-      <c r="B5" s="8">
+      <c r="B5" s="5">
         <v>97</v>
       </c>
-      <c r="C5" s="8">
+      <c r="C5" s="5">
         <v>144</v>
       </c>
-      <c r="D5" s="8">
+      <c r="D5" s="5">
         <v>106</v>
       </c>
-      <c r="E5" s="8">
+      <c r="E5" s="5">
         <v>63</v>
       </c>
-      <c r="F5" s="9">
+      <c r="F5" s="6">
         <v>105</v>
       </c>
-      <c r="G5" s="15">
+      <c r="G5" s="12">
         <v>81</v>
       </c>
-      <c r="H5" s="16">
+      <c r="H5" s="13">
         <v>52</v>
       </c>
-      <c r="I5" s="15">
+      <c r="I5" s="12">
         <v>47</v>
       </c>
-      <c r="J5" s="8">
+      <c r="J5" s="5">
         <v>38</v>
       </c>
-      <c r="K5" s="16">
+      <c r="K5" s="13">
         <v>13</v>
       </c>
-      <c r="L5" s="15">
+      <c r="L5" s="12">
         <v>20</v>
       </c>
-      <c r="M5" s="8">
+      <c r="M5" s="5">
         <v>13</v>
       </c>
-      <c r="N5" s="16">
+      <c r="N5" s="13">
         <v>51</v>
       </c>
-      <c r="O5" s="23"/>
+      <c r="O5" s="20"/>
     </row>
     <row r="6" spans="1:15" ht="15" thickBot="1" x14ac:dyDescent="0.4">
       <c r="A6" s="3">
         <v>3</v>
       </c>
-      <c r="B6" s="8">
+      <c r="B6" s="5">
         <v>58</v>
       </c>
-      <c r="C6" s="8">
+      <c r="C6" s="5">
         <v>135</v>
       </c>
-      <c r="D6" s="8">
+      <c r="D6" s="5">
         <v>75</v>
       </c>
-      <c r="E6" s="8">
+      <c r="E6" s="5">
         <v>33</v>
       </c>
-      <c r="F6" s="9">
+      <c r="F6" s="6">
         <v>51</v>
       </c>
-      <c r="G6" s="15">
+      <c r="G6" s="12">
         <v>33</v>
       </c>
-      <c r="H6" s="16">
+      <c r="H6" s="13">
         <v>28</v>
       </c>
-      <c r="I6" s="15">
+      <c r="I6" s="12">
         <v>21</v>
       </c>
-      <c r="J6" s="8">
+      <c r="J6" s="5">
         <v>14</v>
       </c>
-      <c r="K6" s="16">
+      <c r="K6" s="13">
         <v>9</v>
       </c>
-      <c r="L6" s="15">
+      <c r="L6" s="12">
         <v>9</v>
       </c>
-      <c r="M6" s="8">
+      <c r="M6" s="5">
         <v>6</v>
       </c>
-      <c r="N6" s="16">
+      <c r="N6" s="13">
         <v>44</v>
       </c>
-      <c r="O6" s="23"/>
+      <c r="O6" s="20"/>
     </row>
     <row r="7" spans="1:15" ht="15" thickBot="1" x14ac:dyDescent="0.4">
       <c r="A7" s="3">
         <v>4</v>
       </c>
-      <c r="B7" s="8">
-        <v>1</v>
-      </c>
-      <c r="C7" s="8">
+      <c r="B7" s="5">
+        <v>1</v>
+      </c>
+      <c r="C7" s="5">
         <v>32</v>
       </c>
-      <c r="D7" s="8">
+      <c r="D7" s="5">
         <v>33</v>
       </c>
-      <c r="E7" s="8">
+      <c r="E7" s="5">
         <v>12</v>
       </c>
-      <c r="F7" s="9">
+      <c r="F7" s="6">
         <v>13</v>
       </c>
-      <c r="G7" s="15">
+      <c r="G7" s="12">
         <v>25</v>
       </c>
-      <c r="H7" s="16">
+      <c r="H7" s="13">
         <v>18</v>
       </c>
-      <c r="I7" s="15">
+      <c r="I7" s="12">
         <v>10</v>
       </c>
-      <c r="J7" s="8">
+      <c r="J7" s="5">
         <v>7</v>
       </c>
-      <c r="K7" s="16">
+      <c r="K7" s="13">
         <v>4</v>
       </c>
-      <c r="L7" s="15">
+      <c r="L7" s="12">
         <v>4</v>
       </c>
-      <c r="M7" s="8">
+      <c r="M7" s="5">
         <v>5</v>
       </c>
-      <c r="N7" s="16">
+      <c r="N7" s="13">
         <v>26</v>
       </c>
-      <c r="O7" s="23"/>
+      <c r="O7" s="20"/>
     </row>
     <row r="8" spans="1:15" ht="15" thickBot="1" x14ac:dyDescent="0.4">
       <c r="A8" s="3">
@@ -1864,34 +1961,34 @@
       <c r="E8" s="3">
         <v>20</v>
       </c>
-      <c r="F8" s="9">
+      <c r="F8" s="6">
         <v>12</v>
       </c>
-      <c r="G8" s="15">
+      <c r="G8" s="12">
         <v>37</v>
       </c>
-      <c r="H8" s="16">
+      <c r="H8" s="13">
         <v>27</v>
       </c>
-      <c r="I8" s="15">
+      <c r="I8" s="12">
         <v>38</v>
       </c>
-      <c r="J8" s="8">
+      <c r="J8" s="5">
         <v>39</v>
       </c>
-      <c r="K8" s="16">
+      <c r="K8" s="13">
         <v>6</v>
       </c>
-      <c r="L8" s="15">
+      <c r="L8" s="12">
         <v>3</v>
       </c>
-      <c r="M8" s="8">
-        <v>1</v>
-      </c>
-      <c r="N8" s="16">
+      <c r="M8" s="5">
+        <v>1</v>
+      </c>
+      <c r="N8" s="13">
         <v>16</v>
       </c>
-      <c r="O8" s="23"/>
+      <c r="O8" s="20"/>
     </row>
     <row r="9" spans="1:15" ht="15" thickBot="1" x14ac:dyDescent="0.4">
       <c r="A9" s="3">
@@ -1909,34 +2006,34 @@
       <c r="E9" s="3">
         <v>4</v>
       </c>
-      <c r="F9" s="9">
+      <c r="F9" s="6">
         <v>7</v>
       </c>
-      <c r="G9" s="15">
+      <c r="G9" s="12">
         <v>3</v>
       </c>
-      <c r="H9" s="16">
+      <c r="H9" s="13">
         <v>4</v>
       </c>
-      <c r="I9" s="15">
+      <c r="I9" s="12">
         <v>8</v>
       </c>
-      <c r="J9" s="8">
+      <c r="J9" s="5">
         <v>8</v>
       </c>
-      <c r="K9" s="16">
-        <v>0</v>
-      </c>
-      <c r="L9" s="15">
+      <c r="K9" s="13">
+        <v>0</v>
+      </c>
+      <c r="L9" s="12">
         <v>4</v>
       </c>
-      <c r="M9" s="8">
+      <c r="M9" s="5">
         <v>3</v>
       </c>
-      <c r="N9" s="16">
+      <c r="N9" s="13">
         <v>7</v>
       </c>
-      <c r="O9" s="23"/>
+      <c r="O9" s="20"/>
     </row>
     <row r="10" spans="1:15" ht="15" thickBot="1" x14ac:dyDescent="0.4">
       <c r="A10" s="3">
@@ -1954,34 +2051,34 @@
       <c r="E10" s="3">
         <v>9</v>
       </c>
-      <c r="F10" s="9">
+      <c r="F10" s="6">
         <v>7</v>
       </c>
-      <c r="G10" s="15">
+      <c r="G10" s="12">
         <v>6</v>
       </c>
-      <c r="H10" s="16">
+      <c r="H10" s="13">
         <v>4</v>
       </c>
-      <c r="I10" s="15">
-        <v>0</v>
-      </c>
-      <c r="J10" s="8">
-        <v>0</v>
-      </c>
-      <c r="K10" s="16">
-        <v>0</v>
-      </c>
-      <c r="L10" s="15">
-        <v>1</v>
-      </c>
-      <c r="M10" s="8">
-        <v>0</v>
-      </c>
-      <c r="N10" s="16">
+      <c r="I10" s="12">
+        <v>0</v>
+      </c>
+      <c r="J10" s="5">
+        <v>0</v>
+      </c>
+      <c r="K10" s="13">
+        <v>0</v>
+      </c>
+      <c r="L10" s="12">
+        <v>1</v>
+      </c>
+      <c r="M10" s="5">
+        <v>0</v>
+      </c>
+      <c r="N10" s="13">
         <v>9</v>
       </c>
-      <c r="O10" s="23"/>
+      <c r="O10" s="20"/>
     </row>
     <row r="11" spans="1:15" ht="15" thickBot="1" x14ac:dyDescent="0.4">
       <c r="A11" s="3">
@@ -1999,34 +2096,34 @@
       <c r="E11" s="3">
         <v>0</v>
       </c>
-      <c r="F11" s="9">
+      <c r="F11" s="6">
         <v>2</v>
       </c>
-      <c r="G11" s="15">
+      <c r="G11" s="12">
         <v>5</v>
       </c>
-      <c r="H11" s="16">
+      <c r="H11" s="13">
         <v>3</v>
       </c>
-      <c r="I11" s="15">
-        <v>1</v>
-      </c>
-      <c r="J11" s="8">
-        <v>1</v>
-      </c>
-      <c r="K11" s="16">
-        <v>1</v>
-      </c>
-      <c r="L11" s="15">
+      <c r="I11" s="12">
+        <v>1</v>
+      </c>
+      <c r="J11" s="5">
+        <v>1</v>
+      </c>
+      <c r="K11" s="13">
+        <v>1</v>
+      </c>
+      <c r="L11" s="12">
         <v>2</v>
       </c>
-      <c r="M11" s="8">
-        <v>1</v>
-      </c>
-      <c r="N11" s="16">
+      <c r="M11" s="5">
+        <v>1</v>
+      </c>
+      <c r="N11" s="13">
         <v>10</v>
       </c>
-      <c r="O11" s="23"/>
+      <c r="O11" s="20"/>
     </row>
     <row r="12" spans="1:15" ht="15" thickBot="1" x14ac:dyDescent="0.4">
       <c r="A12" s="3">
@@ -2044,34 +2141,34 @@
       <c r="E12" s="3">
         <v>1</v>
       </c>
-      <c r="F12" s="10">
+      <c r="F12" s="7">
         <v>4</v>
       </c>
-      <c r="G12" s="17">
-        <v>0</v>
-      </c>
-      <c r="H12" s="18">
+      <c r="G12" s="14">
+        <v>0</v>
+      </c>
+      <c r="H12" s="15">
         <v>3</v>
       </c>
-      <c r="I12" s="17">
+      <c r="I12" s="14">
         <v>0</v>
       </c>
       <c r="J12" s="3">
         <v>0</v>
       </c>
-      <c r="K12" s="18">
+      <c r="K12" s="15">
         <v>2</v>
       </c>
-      <c r="L12" s="17">
+      <c r="L12" s="14">
         <v>0</v>
       </c>
       <c r="M12" s="3">
         <v>1</v>
       </c>
-      <c r="N12" s="18">
+      <c r="N12" s="15">
         <v>5</v>
       </c>
-      <c r="O12" s="23"/>
+      <c r="O12" s="20"/>
     </row>
     <row r="13" spans="1:15" ht="15" thickBot="1" x14ac:dyDescent="0.4">
       <c r="A13" s="3">
@@ -2089,34 +2186,34 @@
       <c r="E13" s="3">
         <v>2</v>
       </c>
-      <c r="F13" s="10">
+      <c r="F13" s="7">
         <v>2</v>
       </c>
-      <c r="G13" s="17">
-        <v>0</v>
-      </c>
-      <c r="H13" s="18">
-        <v>1</v>
-      </c>
-      <c r="I13" s="17">
+      <c r="G13" s="14">
+        <v>0</v>
+      </c>
+      <c r="H13" s="15">
+        <v>1</v>
+      </c>
+      <c r="I13" s="14">
         <v>1</v>
       </c>
       <c r="J13" s="3">
         <v>1</v>
       </c>
-      <c r="K13" s="18">
-        <v>0</v>
-      </c>
-      <c r="L13" s="17">
+      <c r="K13" s="15">
+        <v>0</v>
+      </c>
+      <c r="L13" s="14">
         <v>0</v>
       </c>
       <c r="M13" s="3">
         <v>0</v>
       </c>
-      <c r="N13" s="18">
+      <c r="N13" s="15">
         <v>4</v>
       </c>
-      <c r="O13" s="23"/>
+      <c r="O13" s="20"/>
     </row>
     <row r="14" spans="1:15" ht="15" thickBot="1" x14ac:dyDescent="0.4">
       <c r="A14" s="3">
@@ -2134,34 +2231,34 @@
       <c r="E14" s="3">
         <v>1</v>
       </c>
-      <c r="F14" s="10">
-        <v>0</v>
-      </c>
-      <c r="G14" s="17">
-        <v>1</v>
-      </c>
-      <c r="H14" s="18">
+      <c r="F14" s="7">
+        <v>0</v>
+      </c>
+      <c r="G14" s="14">
+        <v>1</v>
+      </c>
+      <c r="H14" s="15">
         <v>3</v>
       </c>
-      <c r="I14" s="17">
+      <c r="I14" s="14">
         <v>1</v>
       </c>
       <c r="J14" s="3">
         <v>1</v>
       </c>
-      <c r="K14" s="18">
-        <v>0</v>
-      </c>
-      <c r="L14" s="17">
+      <c r="K14" s="15">
+        <v>0</v>
+      </c>
+      <c r="L14" s="14">
         <v>0</v>
       </c>
       <c r="M14" s="3">
         <v>0</v>
       </c>
-      <c r="N14" s="18">
+      <c r="N14" s="15">
         <v>3</v>
       </c>
-      <c r="O14" s="23"/>
+      <c r="O14" s="20"/>
     </row>
     <row r="15" spans="1:15" ht="15" thickBot="1" x14ac:dyDescent="0.4">
       <c r="A15" s="3">
@@ -2179,34 +2276,34 @@
       <c r="E15" s="3">
         <v>3</v>
       </c>
-      <c r="F15" s="10">
-        <v>0</v>
-      </c>
-      <c r="G15" s="17">
-        <v>1</v>
-      </c>
-      <c r="H15" s="18">
-        <v>0</v>
-      </c>
-      <c r="I15" s="17">
+      <c r="F15" s="7">
+        <v>0</v>
+      </c>
+      <c r="G15" s="14">
+        <v>1</v>
+      </c>
+      <c r="H15" s="15">
+        <v>0</v>
+      </c>
+      <c r="I15" s="14">
         <v>1</v>
       </c>
       <c r="J15" s="3">
         <v>1</v>
       </c>
-      <c r="K15" s="18">
-        <v>0</v>
-      </c>
-      <c r="L15" s="17">
+      <c r="K15" s="15">
+        <v>0</v>
+      </c>
+      <c r="L15" s="14">
         <v>0</v>
       </c>
       <c r="M15" s="3">
         <v>0</v>
       </c>
-      <c r="N15" s="18">
+      <c r="N15" s="15">
         <v>3</v>
       </c>
-      <c r="O15" s="23"/>
+      <c r="O15" s="20"/>
     </row>
     <row r="16" spans="1:15" ht="15" thickBot="1" x14ac:dyDescent="0.4">
       <c r="A16" s="3">
@@ -2224,34 +2321,34 @@
       <c r="E16" s="3">
         <v>0</v>
       </c>
-      <c r="F16" s="10">
-        <v>1</v>
-      </c>
-      <c r="G16" s="17">
-        <v>1</v>
-      </c>
-      <c r="H16" s="18">
-        <v>1</v>
-      </c>
-      <c r="I16" s="17">
+      <c r="F16" s="7">
+        <v>1</v>
+      </c>
+      <c r="G16" s="14">
+        <v>1</v>
+      </c>
+      <c r="H16" s="15">
+        <v>1</v>
+      </c>
+      <c r="I16" s="14">
         <v>1</v>
       </c>
       <c r="J16" s="3">
         <v>0</v>
       </c>
-      <c r="K16" s="18">
-        <v>0</v>
-      </c>
-      <c r="L16" s="17">
+      <c r="K16" s="15">
+        <v>0</v>
+      </c>
+      <c r="L16" s="14">
         <v>0</v>
       </c>
       <c r="M16" s="3">
         <v>0</v>
       </c>
-      <c r="N16" s="18">
+      <c r="N16" s="15">
         <v>3</v>
       </c>
-      <c r="O16" s="23"/>
+      <c r="O16" s="20"/>
     </row>
     <row r="17" spans="1:15" ht="15" thickBot="1" x14ac:dyDescent="0.4">
       <c r="A17" s="3">
@@ -2269,34 +2366,34 @@
       <c r="E17" s="3">
         <v>1</v>
       </c>
-      <c r="F17" s="10">
-        <v>1</v>
-      </c>
-      <c r="G17" s="17">
-        <v>1</v>
-      </c>
-      <c r="H17" s="18">
+      <c r="F17" s="7">
+        <v>1</v>
+      </c>
+      <c r="G17" s="14">
+        <v>1</v>
+      </c>
+      <c r="H17" s="15">
         <v>2</v>
       </c>
-      <c r="I17" s="17">
+      <c r="I17" s="14">
         <v>1</v>
       </c>
       <c r="J17" s="3">
         <v>0</v>
       </c>
-      <c r="K17" s="18">
-        <v>1</v>
-      </c>
-      <c r="L17" s="17">
+      <c r="K17" s="15">
+        <v>1</v>
+      </c>
+      <c r="L17" s="14">
         <v>0</v>
       </c>
       <c r="M17" s="3">
         <v>0</v>
       </c>
-      <c r="N17" s="18">
+      <c r="N17" s="15">
         <v>2</v>
       </c>
-      <c r="O17" s="23"/>
+      <c r="O17" s="20"/>
     </row>
     <row r="18" spans="1:15" ht="15" thickBot="1" x14ac:dyDescent="0.4">
       <c r="A18" s="3">
@@ -2314,34 +2411,34 @@
       <c r="E18" s="3">
         <v>4</v>
       </c>
-      <c r="F18" s="10">
-        <v>0</v>
-      </c>
-      <c r="G18" s="19">
-        <v>1</v>
-      </c>
-      <c r="H18" s="20">
-        <v>0</v>
-      </c>
-      <c r="I18" s="19">
-        <v>1</v>
-      </c>
-      <c r="J18" s="22">
-        <v>0</v>
-      </c>
-      <c r="K18" s="20">
-        <v>1</v>
-      </c>
-      <c r="L18" s="19">
-        <v>0</v>
-      </c>
-      <c r="M18" s="22">
-        <v>1</v>
-      </c>
-      <c r="N18" s="20">
+      <c r="F18" s="7">
+        <v>0</v>
+      </c>
+      <c r="G18" s="16">
+        <v>1</v>
+      </c>
+      <c r="H18" s="17">
+        <v>0</v>
+      </c>
+      <c r="I18" s="16">
+        <v>1</v>
+      </c>
+      <c r="J18" s="19">
+        <v>0</v>
+      </c>
+      <c r="K18" s="17">
+        <v>1</v>
+      </c>
+      <c r="L18" s="16">
+        <v>0</v>
+      </c>
+      <c r="M18" s="19">
+        <v>1</v>
+      </c>
+      <c r="N18" s="17">
         <v>3</v>
       </c>
-      <c r="O18" s="23"/>
+      <c r="O18" s="20"/>
     </row>
     <row r="19" spans="1:15" ht="15" thickBot="1" x14ac:dyDescent="0.4">
       <c r="A19" s="2" t="s">
@@ -2362,28 +2459,28 @@
       <c r="F19" s="4">
         <v>896</v>
       </c>
-      <c r="G19" s="12">
+      <c r="G19" s="9">
         <v>670</v>
       </c>
-      <c r="H19" s="12">
+      <c r="H19" s="9">
         <v>503</v>
       </c>
-      <c r="I19" s="12">
+      <c r="I19" s="9">
         <v>350</v>
       </c>
-      <c r="J19" s="12">
+      <c r="J19" s="9">
         <v>238</v>
       </c>
-      <c r="K19" s="12">
+      <c r="K19" s="9">
         <v>130</v>
       </c>
-      <c r="L19" s="12">
+      <c r="L19" s="9">
         <v>99</v>
       </c>
-      <c r="M19" s="12">
+      <c r="M19" s="9">
         <v>79</v>
       </c>
-      <c r="N19" s="12">
+      <c r="N19" s="9">
         <v>306</v>
       </c>
       <c r="O19" s="4">
@@ -2422,22 +2519,22 @@
       <c r="A1" s="2" t="s">
         <v>18</v>
       </c>
-      <c r="B1" s="5" t="s">
+      <c r="B1" s="21" t="s">
         <v>16</v>
       </c>
-      <c r="C1" s="6"/>
-      <c r="D1" s="6"/>
-      <c r="E1" s="6"/>
-      <c r="F1" s="6"/>
-      <c r="G1" s="6"/>
-      <c r="H1" s="6"/>
-      <c r="I1" s="6"/>
-      <c r="J1" s="6"/>
-      <c r="K1" s="6"/>
-      <c r="L1" s="6"/>
-      <c r="M1" s="6"/>
-      <c r="N1" s="6"/>
-      <c r="O1" s="7"/>
+      <c r="C1" s="22"/>
+      <c r="D1" s="22"/>
+      <c r="E1" s="22"/>
+      <c r="F1" s="22"/>
+      <c r="G1" s="22"/>
+      <c r="H1" s="22"/>
+      <c r="I1" s="22"/>
+      <c r="J1" s="22"/>
+      <c r="K1" s="22"/>
+      <c r="L1" s="22"/>
+      <c r="M1" s="22"/>
+      <c r="N1" s="22"/>
+      <c r="O1" s="23"/>
     </row>
     <row r="2" spans="1:15" ht="29.5" thickBot="1" x14ac:dyDescent="0.4">
       <c r="A2" s="1" t="s">
@@ -2488,16 +2585,16 @@
       <c r="A3" s="3">
         <v>0</v>
       </c>
-      <c r="B3" s="8">
+      <c r="B3" s="5">
         <v>497</v>
       </c>
-      <c r="C3" s="8">
+      <c r="C3" s="5">
         <v>702</v>
       </c>
-      <c r="D3" s="8">
+      <c r="D3" s="5">
         <v>463</v>
       </c>
-      <c r="E3" s="8">
+      <c r="E3" s="5">
         <v>304</v>
       </c>
       <c r="F3" s="3">
@@ -2533,16 +2630,16 @@
       <c r="A4" s="3">
         <v>1</v>
       </c>
-      <c r="B4" s="8">
+      <c r="B4" s="5">
         <v>84</v>
       </c>
-      <c r="C4" s="8">
+      <c r="C4" s="5">
         <v>133</v>
       </c>
-      <c r="D4" s="8">
+      <c r="D4" s="5">
         <v>84</v>
       </c>
-      <c r="E4" s="8">
+      <c r="E4" s="5">
         <v>64</v>
       </c>
       <c r="F4" s="3">
@@ -3267,4 +3364,347 @@
   </mergeCells>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
 </worksheet>
+</file>
+
+<file path=xl/worksheets/sheet4.xml><?xml version="1.0" encoding="utf-8"?>
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
+  <dimension ref="A1:H16"/>
+  <sheetViews>
+    <sheetView tabSelected="1" workbookViewId="0">
+      <selection activeCell="N13" sqref="N13"/>
+    </sheetView>
+  </sheetViews>
+  <sheetFormatPr defaultRowHeight="14.5" x14ac:dyDescent="0.35"/>
+  <sheetData>
+    <row r="1" spans="1:8" x14ac:dyDescent="0.35">
+      <c r="A1" t="s">
+        <v>37</v>
+      </c>
+    </row>
+    <row r="2" spans="1:8" ht="15" thickBot="1" x14ac:dyDescent="0.4">
+      <c r="A2" t="s">
+        <v>38</v>
+      </c>
+      <c r="B2" t="s">
+        <v>39</v>
+      </c>
+      <c r="D2" t="s">
+        <v>40</v>
+      </c>
+    </row>
+    <row r="3" spans="1:8" ht="15" thickBot="1" x14ac:dyDescent="0.4">
+      <c r="A3" s="1"/>
+      <c r="B3" s="25" t="s">
+        <v>21</v>
+      </c>
+      <c r="C3" s="26"/>
+      <c r="D3" s="26"/>
+      <c r="E3" s="27"/>
+      <c r="F3" s="1"/>
+      <c r="G3" s="1"/>
+    </row>
+    <row r="4" spans="1:8" ht="15" thickBot="1" x14ac:dyDescent="0.4">
+      <c r="A4" s="1"/>
+      <c r="B4" s="1" t="s">
+        <v>22</v>
+      </c>
+      <c r="C4" s="1"/>
+      <c r="D4" s="1" t="s">
+        <v>23</v>
+      </c>
+      <c r="E4" s="1"/>
+      <c r="F4" s="1" t="s">
+        <v>24</v>
+      </c>
+      <c r="G4" s="1"/>
+    </row>
+    <row r="5" spans="1:8" ht="15" thickBot="1" x14ac:dyDescent="0.4">
+      <c r="A5" s="1" t="s">
+        <v>25</v>
+      </c>
+      <c r="B5" s="3">
+        <v>73</v>
+      </c>
+      <c r="C5" s="24">
+        <v>1</v>
+      </c>
+      <c r="D5" s="3">
+        <v>1298</v>
+      </c>
+      <c r="E5" s="24">
+        <v>1</v>
+      </c>
+      <c r="F5" s="3">
+        <v>1371</v>
+      </c>
+      <c r="G5" s="24">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="6" spans="1:8" ht="15" thickBot="1" x14ac:dyDescent="0.4">
+      <c r="A6" s="1" t="s">
+        <v>26</v>
+      </c>
+      <c r="B6" s="3">
+        <v>45</v>
+      </c>
+      <c r="C6" s="24">
+        <v>0.61639999999999995</v>
+      </c>
+      <c r="D6" s="3">
+        <v>649</v>
+      </c>
+      <c r="E6" s="24">
+        <v>0.5</v>
+      </c>
+      <c r="F6" s="3">
+        <v>694</v>
+      </c>
+      <c r="G6" s="24">
+        <v>0.50619999999999998</v>
+      </c>
+    </row>
+    <row r="7" spans="1:8" ht="15" thickBot="1" x14ac:dyDescent="0.4">
+      <c r="A7" s="1" t="s">
+        <v>27</v>
+      </c>
+      <c r="B7" s="3">
+        <v>33</v>
+      </c>
+      <c r="C7" s="24">
+        <v>0.4521</v>
+      </c>
+      <c r="D7" s="3">
+        <v>474</v>
+      </c>
+      <c r="E7" s="24">
+        <v>0.36520000000000002</v>
+      </c>
+      <c r="F7" s="3">
+        <v>507</v>
+      </c>
+      <c r="G7" s="24">
+        <v>0.36980000000000002</v>
+      </c>
+    </row>
+    <row r="8" spans="1:8" ht="15" thickBot="1" x14ac:dyDescent="0.4">
+      <c r="A8" s="1" t="s">
+        <v>28</v>
+      </c>
+      <c r="B8" s="3">
+        <v>21</v>
+      </c>
+      <c r="C8" s="24">
+        <v>0.28770000000000001</v>
+      </c>
+      <c r="D8" s="3">
+        <v>307</v>
+      </c>
+      <c r="E8" s="24">
+        <v>0.23649999999999999</v>
+      </c>
+      <c r="F8" s="3">
+        <v>328</v>
+      </c>
+      <c r="G8" s="24">
+        <v>0.2392</v>
+      </c>
+    </row>
+    <row r="9" spans="1:8" ht="15" thickBot="1" x14ac:dyDescent="0.4">
+      <c r="A9" s="1" t="s">
+        <v>29</v>
+      </c>
+      <c r="B9" s="3">
+        <v>13</v>
+      </c>
+      <c r="C9" s="24">
+        <v>0.17810000000000001</v>
+      </c>
+      <c r="D9" s="3">
+        <v>209</v>
+      </c>
+      <c r="E9" s="24">
+        <v>0.161</v>
+      </c>
+      <c r="F9" s="3">
+        <v>222</v>
+      </c>
+      <c r="G9" s="24">
+        <v>0.16189999999999999</v>
+      </c>
+    </row>
+    <row r="10" spans="1:8" ht="15" thickBot="1" x14ac:dyDescent="0.4">
+      <c r="A10" s="1" t="s">
+        <v>30</v>
+      </c>
+      <c r="B10" s="3">
+        <v>12</v>
+      </c>
+      <c r="C10" s="24">
+        <v>0.16439999999999999</v>
+      </c>
+      <c r="D10" s="3">
+        <v>191</v>
+      </c>
+      <c r="E10" s="24">
+        <v>0.14710000000000001</v>
+      </c>
+      <c r="F10" s="3">
+        <v>203</v>
+      </c>
+      <c r="G10" s="24">
+        <v>0.14810000000000001</v>
+      </c>
+    </row>
+    <row r="11" spans="1:8" ht="15" thickBot="1" x14ac:dyDescent="0.4">
+      <c r="A11" s="28" t="s">
+        <v>31</v>
+      </c>
+      <c r="B11" s="5">
+        <v>11</v>
+      </c>
+      <c r="C11" s="29">
+        <v>0.1507</v>
+      </c>
+      <c r="D11" s="5">
+        <v>188</v>
+      </c>
+      <c r="E11" s="29">
+        <v>0.14480000000000001</v>
+      </c>
+      <c r="F11" s="5">
+        <v>199</v>
+      </c>
+      <c r="G11" s="29">
+        <v>0.14510000000000001</v>
+      </c>
+      <c r="H11" t="s">
+        <v>41</v>
+      </c>
+    </row>
+    <row r="12" spans="1:8" ht="15" thickBot="1" x14ac:dyDescent="0.4">
+      <c r="A12" s="28" t="s">
+        <v>32</v>
+      </c>
+      <c r="B12" s="5">
+        <v>10</v>
+      </c>
+      <c r="C12" s="29">
+        <v>0.13700000000000001</v>
+      </c>
+      <c r="D12" s="5">
+        <v>103</v>
+      </c>
+      <c r="E12" s="29">
+        <v>7.9399999999999998E-2</v>
+      </c>
+      <c r="F12" s="5">
+        <v>113</v>
+      </c>
+      <c r="G12" s="29">
+        <v>8.2400000000000001E-2</v>
+      </c>
+    </row>
+    <row r="13" spans="1:8" ht="15" thickBot="1" x14ac:dyDescent="0.4">
+      <c r="A13" s="28" t="s">
+        <v>33</v>
+      </c>
+      <c r="B13" s="5">
+        <v>7</v>
+      </c>
+      <c r="C13" s="29">
+        <v>9.5899999999999999E-2</v>
+      </c>
+      <c r="D13" s="5">
+        <v>39</v>
+      </c>
+      <c r="E13" s="29">
+        <v>0.03</v>
+      </c>
+      <c r="F13" s="5">
+        <v>46</v>
+      </c>
+      <c r="G13" s="29">
+        <v>3.3599999999999998E-2</v>
+      </c>
+    </row>
+    <row r="14" spans="1:8" ht="15" thickBot="1" x14ac:dyDescent="0.4">
+      <c r="A14" s="30" t="s">
+        <v>34</v>
+      </c>
+      <c r="B14" s="31">
+        <v>5</v>
+      </c>
+      <c r="C14" s="32">
+        <v>6.8500000000000005E-2</v>
+      </c>
+      <c r="D14" s="31">
+        <v>27</v>
+      </c>
+      <c r="E14" s="32">
+        <v>2.0799999999999999E-2</v>
+      </c>
+      <c r="F14" s="31">
+        <v>32</v>
+      </c>
+      <c r="G14" s="32">
+        <v>2.3300000000000001E-2</v>
+      </c>
+      <c r="H14" t="s">
+        <v>41</v>
+      </c>
+    </row>
+    <row r="15" spans="1:8" ht="15" thickBot="1" x14ac:dyDescent="0.4">
+      <c r="A15" s="30" t="s">
+        <v>35</v>
+      </c>
+      <c r="B15" s="31">
+        <v>5</v>
+      </c>
+      <c r="C15" s="32">
+        <v>6.8500000000000005E-2</v>
+      </c>
+      <c r="D15" s="31">
+        <v>15</v>
+      </c>
+      <c r="E15" s="32">
+        <v>1.1599999999999999E-2</v>
+      </c>
+      <c r="F15" s="31">
+        <v>20</v>
+      </c>
+      <c r="G15" s="32">
+        <v>1.46E-2</v>
+      </c>
+    </row>
+    <row r="16" spans="1:8" ht="15" thickBot="1" x14ac:dyDescent="0.4">
+      <c r="A16" s="30" t="s">
+        <v>36</v>
+      </c>
+      <c r="B16" s="31">
+        <v>2</v>
+      </c>
+      <c r="C16" s="32">
+        <v>2.7400000000000001E-2</v>
+      </c>
+      <c r="D16" s="31">
+        <v>12</v>
+      </c>
+      <c r="E16" s="32">
+        <v>9.1999999999999998E-3</v>
+      </c>
+      <c r="F16" s="31">
+        <v>14</v>
+      </c>
+      <c r="G16" s="32">
+        <v>1.0200000000000001E-2</v>
+      </c>
+    </row>
+  </sheetData>
+  <mergeCells count="1">
+    <mergeCell ref="B3:E3"/>
+  </mergeCells>
+  <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
+  <pageSetup paperSize="9" orientation="portrait" horizontalDpi="0" verticalDpi="0" r:id="rId1"/>
+</worksheet>
 </file>